--- a/Project Outputs for PLD_FPC/BOM.xlsx
+++ b/Project Outputs for PLD_FPC/BOM.xlsx
@@ -209,9 +209,6 @@
     <t>LF1</t>
   </si>
   <si>
-    <t>B43630A5107M000</t>
-  </si>
-  <si>
     <t>10ÂµF 450V Aluminum Electrolytic Capacitors Radial, Can 12000 Hrs @ 105Â°C</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>PN</t>
+  </si>
+  <si>
+    <t>B43545A5107M000</t>
   </si>
 </sst>
 </file>
@@ -646,7 +646,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1010,13 +1010,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -1024,13 +1024,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3">
         <v>1</v>
@@ -1052,13 +1052,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3">
         <v>1</v>
@@ -1066,13 +1066,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -1080,13 +1080,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -1094,13 +1094,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1108,13 +1108,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1136,13 +1136,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
